--- a/data/trans_orig/P16B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{950089EB-CEFA-4294-93FC-EEC8F283EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{003A3D8D-3C51-469C-BC6C-691FDB2855CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E6414BE-3592-417C-AF5B-523C7177D838}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{793ED54F-2110-4864-ACE2-8D9867BDCE60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>90,07%</t>
+    <t>91,07%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,16 +85,16 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>94,3%</t>
+    <t>94,11%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,22 +106,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,93%</t>
+    <t>8,93%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>5,7%</t>
+    <t>5,89%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,7 +133,7 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>77,13%</t>
+    <t>77,55%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -142,13 +142,13 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>91,24%</t>
+    <t>91,03%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>22,87%</t>
+    <t>22,45%</t>
   </si>
   <si>
     <t>0%</t>
@@ -160,7 +160,7 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>8,76%</t>
+    <t>8,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -187,7 +187,7 @@
     <t>97,14%</t>
   </si>
   <si>
-    <t>91,75%</t>
+    <t>92,45%</t>
   </si>
   <si>
     <t>99,15%</t>
@@ -196,7 +196,7 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>98,13%</t>
@@ -214,13 +214,13 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>8,25%</t>
+    <t>7,55%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>1,87%</t>
@@ -247,13 +247,13 @@
     <t>94,91%</t>
   </si>
   <si>
-    <t>99,41%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,82%</t>
+    <t>95,66%</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -265,7 +265,7 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,6%</t>
   </si>
   <si>
     <t>5,09%</t>
@@ -277,7 +277,7 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>4,18%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -313,13 +313,13 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>95,62%</t>
+    <t>95,89%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>96,83%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -328,7 +328,7 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -337,7 +337,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,17%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2015 (Tasa respuesta: 2,48%)</t>
@@ -346,25 +346,25 @@
     <t>98,1%</t>
   </si>
   <si>
-    <t>90,8%</t>
+    <t>90,01%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>93,28%</t>
+    <t>91,85%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>9,2%</t>
+    <t>9,99%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>8,15%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -394,13 +394,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,46%</t>
+    <t>93,51%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,59%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -409,13 +409,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,54%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>4,65%</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65A5B50-A1E2-41E9-814B-D82A6544A886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B478020-0DDB-42EB-A52C-6245F3A963D4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F56172-5317-4E9A-98BF-E88B391D2F68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EC746D-ED94-422C-9172-AC59BDAE7CB0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2329,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AC93EE-896A-4334-9FE9-CF2A1F9CDD75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35818F6C-4EFC-4AD0-9DD7-78F099428027}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{003A3D8D-3C51-469C-BC6C-691FDB2855CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8480E4F7-DDE6-41CD-B89C-8166FE173A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{793ED54F-2110-4864-ACE2-8D9867BDCE60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A0CE2A8-1E77-45E5-84B2-F7A0AC98B31A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +76,7 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>91,07%</t>
+    <t>90,4%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,16 +85,16 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>94,11%</t>
+    <t>94,67%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,22 +106,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,93%</t>
+    <t>9,6%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>5,89%</t>
+    <t>5,33%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,7 +133,7 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>77,55%</t>
+    <t>78,71%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -142,13 +142,13 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>91,03%</t>
+    <t>91,06%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>22,45%</t>
+    <t>21,29%</t>
   </si>
   <si>
     <t>0%</t>
@@ -160,7 +160,7 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>8,97%</t>
+    <t>8,94%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -187,49 +187,49 @@
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -244,178 +244,178 @@
     <t>98,09%</t>
   </si>
   <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para el reuma recetados en 2015 (Tasa respuesta: 2,48%)</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B478020-0DDB-42EB-A52C-6245F3A963D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231FDB73-2441-4DF2-B06A-2E9B6E1E5C69}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EC746D-ED94-422C-9172-AC59BDAE7CB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D5B73C-5E9F-4F97-B1DE-1C4C06D0D8D9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2185,10 +2185,10 @@
         <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>249</v>
@@ -2236,10 +2236,10 @@
         <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2329,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35818F6C-4EFC-4AD0-9DD7-78F099428027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E06A89-49D4-4C4F-B5F2-CBA0FB8F8E9A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8480E4F7-DDE6-41CD-B89C-8166FE173A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC7305C4-6DA9-414A-95BC-11813F93BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A0CE2A8-1E77-45E5-84B2-F7A0AC98B31A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9AF40ACB-794D-49B9-82FF-1E24ED79A54E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,13 +70,13 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>90,4%</t>
+    <t>90,07%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,16 +85,16 @@
     <t>98,31%</t>
   </si>
   <si>
-    <t>94,67%</t>
+    <t>94,3%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,22 +106,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>9,93%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>5,33%</t>
+    <t>5,7%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,7 +133,7 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>78,71%</t>
+    <t>77,13%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -142,13 +142,13 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>91,06%</t>
+    <t>91,24%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>21,29%</t>
+    <t>22,87%</t>
   </si>
   <si>
     <t>0%</t>
@@ -160,7 +160,7 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>8,94%</t>
+    <t>8,76%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -187,49 +187,49 @@
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,45%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -244,19 +244,19 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -265,19 +265,19 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>92,07%</t>
@@ -313,13 +313,13 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>99,51%</t>
+    <t>95,62%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>96,93%</t>
+    <t>96,84%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -328,7 +328,7 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -337,7 +337,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,07%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
@@ -346,25 +346,25 @@
     <t>98,1%</t>
   </si>
   <si>
-    <t>90,64%</t>
+    <t>90,8%</t>
   </si>
   <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>91,3%</t>
+    <t>93,28%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>9,36%</t>
+    <t>9,2%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>8,7%</t>
+    <t>6,72%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -394,13 +394,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>93,46%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,91%</t>
+    <t>94,59%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -409,13 +409,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>6,54%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>5,41%</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231FDB73-2441-4DF2-B06A-2E9B6E1E5C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB78C9B2-85C9-432E-8525-E18CE9F566F9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D5B73C-5E9F-4F97-B1DE-1C4C06D0D8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CC4D8-3282-4875-87BC-3A44F5BC5ADC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2185,10 +2185,10 @@
         <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>249</v>
@@ -2236,10 +2236,10 @@
         <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2329,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E06A89-49D4-4C4F-B5F2-CBA0FB8F8E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9090771-3314-4F8A-BEAA-17C3E80D2454}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC7305C4-6DA9-414A-95BC-11813F93BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC52C726-6D06-4309-9073-E7EA89E6E628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9AF40ACB-794D-49B9-82FF-1E24ED79A54E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5D8CC8BA-7C7F-4F77-826A-3F03C47A7DFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -827,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB78C9B2-85C9-432E-8525-E18CE9F566F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1EA5A5-8810-4E90-8B7F-B3E1B0EF9E8F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512CC4D8-3282-4875-87BC-3A44F5BC5ADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECCB922-C260-4D74-A838-953A62C63BC9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2329,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9090771-3314-4F8A-BEAA-17C3E80D2454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECF184B-9001-4CA3-91C5-C860980AD08C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
